--- a/biology/Zoologie/Ialyssus_tuberculatus/Ialyssus_tuberculatus.xlsx
+++ b/biology/Zoologie/Ialyssus_tuberculatus/Ialyssus_tuberculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ialyssus tuberculatus est une espèce de coléoptères de la famille des Cerambycidae, de la sous famille des Prioninae, de la tribu des Remphanini , du genre Ialyssus.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination pour le genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Ialyssus  a été décrit par l'entomologiste français James Thomson en 1864[1].
-Synonymie pour le genre [2]
-Jalyssus (Gemminger &amp; Harold, 1872)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Ialyssus  a été décrit par l'entomologiste français James Thomson en 1864.</t>
         </is>
       </c>
     </row>
@@ -540,17 +552,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dénomination  pour l'espèce</t>
+          <t>Dénomination pour le genre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>l'espèce a été décrite par l'entomologiste français Guillaume-Antoine Olivier en 1795 [3].
-Synonymie pour l'espèce [4]
-Ctenoscelis tuberculatus (Olivier) par Serville en 1832
-Jalyssus tuberculatus (Olivier) par Gemminger &amp; Harold en 1872
-Mecosarthron tuberculatus (Olivier) par Buquet en 1843
-Prionus tuberculatus (Olivier, 1795)</t>
+          <t>Synonymie pour le genre [2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jalyssus (Gemminger &amp; Harold, 1872)</t>
         </is>
       </c>
     </row>
@@ -575,10 +588,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dénomination  pour l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>l'espèce a été décrite par l'entomologiste français Guillaume-Antoine Olivier en 1795 .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ialyssus_tuberculatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ialyssus_tuberculatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination  pour l'espèce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie pour l'espèce [4]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ctenoscelis tuberculatus (Olivier) par Serville en 1832
+Jalyssus tuberculatus (Olivier) par Gemminger &amp; Harold en 1872
+Mecosarthron tuberculatus (Olivier) par Buquet en 1843
+Prionus tuberculatus (Olivier, 1795)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ialyssus_tuberculatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ialyssus_tuberculatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brésil, Guyane, Guyana.</t>
         </is>
